--- a/Reproducible research/badtable.xlsx
+++ b/Reproducible research/badtable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roland.krause/Workspace/isb101-2015/Reproducible research/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24500" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="badtable.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>Roland Krause</t>
   </si>
@@ -313,6 +318,9 @@
   </si>
   <si>
     <t>11-12-70</t>
+  </si>
+  <si>
+    <t>East-German</t>
   </si>
 </sst>
 </file>
@@ -451,6 +459,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -779,12 +792,12 @@
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="7" width="9" customWidth="1"/>
@@ -794,7 +807,7 @@
     <col min="13" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -841,7 +854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1">
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -888,7 +901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1">
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -935,7 +948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
@@ -959,7 +972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1">
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -989,7 +1002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1030,7 +1043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1">
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1066,7 +1079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1">
+    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
@@ -1085,7 +1098,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1">
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
@@ -1129,7 +1142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1">
+    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1">
+    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1">
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1">
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>61</v>
@@ -1285,10 +1298,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>